--- a/První projekt.xlsx
+++ b/První projekt.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDASK9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDASK9\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE6873A-460F-4B2A-A78B-3030A83EEF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF98F29-60FA-4155-9A8E-41A1762CD985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ZADANIE" sheetId="1" r:id="rId1"/>
+    <sheet name="ZADANIE" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Slniecka" sheetId="4" r:id="rId2"/>
     <sheet name="Lukáš V." sheetId="10" state="hidden" r:id="rId3"/>
   </sheets>
@@ -5835,8 +5835,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5844,15 +5873,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5867,34 +5892,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -5937,40 +5937,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2276475</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4276725" cy="5476875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image27.png" title="Obrázok">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8976,8 +8942,8 @@
   </sheetPr>
   <dimension ref="A4:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9421,7 +9387,7 @@
   </sheetPr>
   <dimension ref="A1:AC489"/>
   <sheetViews>
-    <sheetView topLeftCell="A234" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K280" sqref="K280"/>
     </sheetView>
   </sheetViews>
@@ -9447,7 +9413,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="19.5">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="195" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="194"/>
@@ -9510,7 +9476,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.75">
-      <c r="A9" s="219" t="s">
+      <c r="A9" s="196" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="194"/>
@@ -9683,7 +9649,7 @@
       <c r="B39" s="79"/>
     </row>
     <row r="42" spans="1:4" ht="19.5">
-      <c r="A42" s="218" t="s">
+      <c r="A42" s="195" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="194"/>
@@ -9715,45 +9681,45 @@
       <c r="A46" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="220" t="s">
+      <c r="B46" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="221"/>
+      <c r="C46" s="198"/>
     </row>
     <row r="47" spans="1:4" ht="12.75">
       <c r="A47" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="221"/>
-      <c r="C47" s="221"/>
+      <c r="B47" s="198"/>
+      <c r="C47" s="198"/>
     </row>
     <row r="48" spans="1:4" ht="12.75">
       <c r="A48" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="221"/>
-      <c r="C48" s="221"/>
+      <c r="B48" s="198"/>
+      <c r="C48" s="198"/>
     </row>
     <row r="49" spans="1:9" ht="12.75">
       <c r="A49" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="221"/>
-      <c r="C49" s="221"/>
+      <c r="B49" s="198"/>
+      <c r="C49" s="198"/>
     </row>
     <row r="50" spans="1:9" ht="12.75">
       <c r="A50" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="221"/>
-      <c r="C50" s="221"/>
+      <c r="B50" s="198"/>
+      <c r="C50" s="198"/>
     </row>
     <row r="51" spans="1:9" ht="12.75">
       <c r="A51" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="221"/>
-      <c r="C51" s="221"/>
+      <c r="B51" s="198"/>
+      <c r="C51" s="198"/>
     </row>
     <row r="52" spans="1:9" ht="12.75">
       <c r="B52" s="3" t="s">
@@ -10122,11 +10088,11 @@
     <row r="78" spans="1:9" ht="19.5" customHeight="1">
       <c r="A78" s="74"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="199" t="s">
+      <c r="C78" s="213" t="s">
         <v>137</v>
       </c>
       <c r="D78" s="3"/>
-      <c r="E78" s="195" t="s">
+      <c r="E78" s="204" t="s">
         <v>144</v>
       </c>
       <c r="F78" s="3"/>
@@ -10139,9 +10105,9 @@
     <row r="79" spans="1:9" ht="19.5" customHeight="1">
       <c r="A79" s="74"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="199"/>
+      <c r="C79" s="213"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="195"/>
+      <c r="E79" s="204"/>
       <c r="F79" s="3"/>
       <c r="G79" s="74"/>
       <c r="H79" s="68"/>
@@ -10150,8 +10116,8 @@
     <row r="80" spans="1:9" ht="19.5" customHeight="1">
       <c r="A80" s="74"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="199"/>
-      <c r="E80" s="195"/>
+      <c r="C80" s="213"/>
+      <c r="E80" s="204"/>
       <c r="F80" s="3"/>
       <c r="G80" s="74"/>
       <c r="H80" s="68"/>
@@ -10160,8 +10126,8 @@
     <row r="81" spans="1:9" ht="19.5" customHeight="1">
       <c r="A81" s="74"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="199"/>
-      <c r="E81" s="195"/>
+      <c r="C81" s="213"/>
+      <c r="E81" s="204"/>
       <c r="F81" s="3"/>
       <c r="G81" s="74"/>
       <c r="H81" s="68"/>
@@ -10170,8 +10136,8 @@
     <row r="82" spans="1:9" ht="35.25" customHeight="1">
       <c r="A82" s="74"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="199"/>
-      <c r="E82" s="195"/>
+      <c r="C82" s="213"/>
+      <c r="E82" s="204"/>
       <c r="F82" s="3"/>
       <c r="G82" s="74"/>
       <c r="H82" s="68"/>
@@ -10180,9 +10146,9 @@
     <row r="83" spans="1:9" ht="66.75" customHeight="1" thickBot="1">
       <c r="A83" s="78"/>
       <c r="B83" s="109"/>
-      <c r="C83" s="200"/>
+      <c r="C83" s="214"/>
       <c r="D83" s="109"/>
-      <c r="E83" s="201"/>
+      <c r="E83" s="205"/>
       <c r="F83" s="109"/>
       <c r="G83" s="78"/>
       <c r="H83" s="79"/>
@@ -10487,7 +10453,7 @@
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A131" s="195" t="s">
+      <c r="A131" s="204" t="s">
         <v>179</v>
       </c>
       <c r="B131" s="70"/>
@@ -10502,7 +10468,7 @@
       <c r="I131" s="3"/>
     </row>
     <row r="132" spans="1:9" ht="12.75">
-      <c r="A132" s="195"/>
+      <c r="A132" s="204"/>
       <c r="B132" s="70"/>
       <c r="C132" s="119"/>
       <c r="E132" s="119"/>
@@ -10511,7 +10477,7 @@
       <c r="I132" s="3"/>
     </row>
     <row r="133" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A133" s="195"/>
+      <c r="A133" s="204"/>
       <c r="B133" s="70"/>
       <c r="C133" s="119"/>
       <c r="E133" s="119"/>
@@ -10520,7 +10486,7 @@
       <c r="I133" s="3"/>
     </row>
     <row r="134" spans="1:9" ht="52.5" customHeight="1">
-      <c r="A134" s="195"/>
+      <c r="A134" s="204"/>
       <c r="B134" s="70"/>
       <c r="C134" s="119"/>
       <c r="E134" s="119"/>
@@ -10529,7 +10495,7 @@
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="1:9" ht="49.5" customHeight="1">
-      <c r="A135" s="202"/>
+      <c r="A135" s="215"/>
       <c r="B135" s="70"/>
       <c r="C135" s="119"/>
       <c r="E135" s="131"/>
@@ -10781,11 +10747,11 @@
     <row r="154" spans="1:9" ht="12.75" customHeight="1">
       <c r="A154" s="74"/>
       <c r="B154" s="68"/>
-      <c r="C154" s="195" t="s">
+      <c r="C154" s="204" t="s">
         <v>203</v>
       </c>
       <c r="D154" s="3"/>
-      <c r="E154" s="203" t="s">
+      <c r="E154" s="216" t="s">
         <v>217</v>
       </c>
       <c r="F154" s="3"/>
@@ -10796,9 +10762,9 @@
     <row r="155" spans="1:9" ht="12.75">
       <c r="A155" s="74"/>
       <c r="B155" s="68"/>
-      <c r="C155" s="195"/>
+      <c r="C155" s="204"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="203"/>
+      <c r="E155" s="216"/>
       <c r="F155" s="3"/>
       <c r="G155" s="74"/>
       <c r="H155" s="68"/>
@@ -10807,9 +10773,9 @@
     <row r="156" spans="1:9" ht="12.75">
       <c r="A156" s="74"/>
       <c r="B156" s="68"/>
-      <c r="C156" s="195"/>
+      <c r="C156" s="204"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="203"/>
+      <c r="E156" s="216"/>
       <c r="F156" s="3"/>
       <c r="G156" s="74"/>
       <c r="H156" s="68"/>
@@ -10818,9 +10784,9 @@
     <row r="157" spans="1:9" ht="12.75">
       <c r="A157" s="74"/>
       <c r="B157" s="68"/>
-      <c r="C157" s="195"/>
+      <c r="C157" s="204"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="203"/>
+      <c r="E157" s="216"/>
       <c r="F157" s="3"/>
       <c r="G157" s="74"/>
       <c r="H157" s="68"/>
@@ -10829,9 +10795,9 @@
     <row r="158" spans="1:9" ht="12.75">
       <c r="A158" s="74"/>
       <c r="B158" s="68"/>
-      <c r="C158" s="195"/>
+      <c r="C158" s="204"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="203"/>
+      <c r="E158" s="216"/>
       <c r="F158" s="3"/>
       <c r="G158" s="74"/>
       <c r="H158" s="68"/>
@@ -10840,9 +10806,9 @@
     <row r="159" spans="1:9" ht="12.75">
       <c r="A159" s="74"/>
       <c r="B159" s="68"/>
-      <c r="C159" s="195"/>
+      <c r="C159" s="204"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="203"/>
+      <c r="E159" s="216"/>
       <c r="F159" s="3"/>
       <c r="G159" s="74"/>
       <c r="H159" s="68"/>
@@ -10851,9 +10817,9 @@
     <row r="160" spans="1:9" ht="12.75">
       <c r="A160" s="74"/>
       <c r="B160" s="68"/>
-      <c r="C160" s="195"/>
+      <c r="C160" s="204"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="203"/>
+      <c r="E160" s="216"/>
       <c r="F160" s="3"/>
       <c r="G160" s="74"/>
       <c r="H160" s="68"/>
@@ -10863,7 +10829,7 @@
       <c r="A161" s="74"/>
       <c r="B161" s="68"/>
       <c r="C161" s="75"/>
-      <c r="E161" s="203"/>
+      <c r="E161" s="216"/>
       <c r="F161" s="3"/>
       <c r="G161" s="74"/>
       <c r="H161" s="68"/>
@@ -10899,7 +10865,7 @@
       <c r="C165" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="E165" s="222" t="s">
+      <c r="E165" s="199" t="s">
         <v>206</v>
       </c>
       <c r="F165" s="194"/>
@@ -10909,7 +10875,7 @@
       <c r="C166" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E166" s="207" t="s">
+      <c r="E166" s="200" t="s">
         <v>207</v>
       </c>
       <c r="F166" s="194"/>
@@ -10919,7 +10885,7 @@
       <c r="C167" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E167" s="207" t="s">
+      <c r="E167" s="200" t="s">
         <v>208</v>
       </c>
       <c r="F167" s="194"/>
@@ -10939,7 +10905,7 @@
       <c r="C169" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E169" s="207" t="s">
+      <c r="E169" s="200" t="s">
         <v>210</v>
       </c>
       <c r="F169" s="194"/>
@@ -10949,7 +10915,7 @@
       <c r="C170" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E170" s="217" t="s">
+      <c r="E170" s="201" t="s">
         <v>211</v>
       </c>
       <c r="F170" s="194"/>
@@ -10959,7 +10925,7 @@
       <c r="C171" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E171" s="215" t="s">
+      <c r="E171" s="202" t="s">
         <v>212</v>
       </c>
       <c r="F171" s="194"/>
@@ -10969,7 +10935,7 @@
       <c r="C172" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E172" s="215"/>
+      <c r="E172" s="202"/>
       <c r="F172" s="194"/>
       <c r="I172" s="3"/>
     </row>
@@ -10977,7 +10943,7 @@
       <c r="C173" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E173" s="215" t="s">
+      <c r="E173" s="202" t="s">
         <v>162</v>
       </c>
       <c r="F173" s="194"/>
@@ -10987,7 +10953,7 @@
       <c r="C174" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="E174" s="216" t="s">
+      <c r="E174" s="206" t="s">
         <v>218</v>
       </c>
       <c r="F174" s="194"/>
@@ -10997,7 +10963,7 @@
       <c r="C175" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E175" s="207"/>
+      <c r="E175" s="200"/>
       <c r="F175" s="194"/>
       <c r="G175" s="3"/>
     </row>
@@ -11005,7 +10971,7 @@
       <c r="C176" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E176" s="207" t="s">
+      <c r="E176" s="200" t="s">
         <v>219</v>
       </c>
       <c r="F176" s="194"/>
@@ -11015,7 +10981,7 @@
       <c r="C177" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E177" s="207" t="s">
+      <c r="E177" s="200" t="s">
         <v>220</v>
       </c>
       <c r="F177" s="194"/>
@@ -11087,7 +11053,7 @@
       <c r="G195" s="66"/>
     </row>
     <row r="197" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A197" s="198" t="s">
+      <c r="A197" s="203" t="s">
         <v>226</v>
       </c>
       <c r="B197" s="194"/>
@@ -11395,7 +11361,7 @@
       <c r="C215" s="75"/>
       <c r="D215" s="3"/>
       <c r="E215" s="75"/>
-      <c r="G215" s="195" t="s">
+      <c r="G215" s="204" t="s">
         <v>154</v>
       </c>
       <c r="I215" s="74"/>
@@ -11406,7 +11372,7 @@
       <c r="B216" s="68"/>
       <c r="C216" s="74"/>
       <c r="E216" s="75"/>
-      <c r="G216" s="195"/>
+      <c r="G216" s="204"/>
       <c r="I216" s="74"/>
       <c r="J216" s="70"/>
     </row>
@@ -11497,11 +11463,11 @@
       <c r="J220" s="68"/>
     </row>
     <row r="221" spans="1:10" ht="15" customHeight="1">
-      <c r="A221" s="195" t="s">
+      <c r="A221" s="204" t="s">
         <v>235</v>
       </c>
       <c r="B221" s="68"/>
-      <c r="C221" s="204" t="s">
+      <c r="C221" s="217" t="s">
         <v>246</v>
       </c>
       <c r="D221" s="3"/>
@@ -11509,7 +11475,7 @@
         <v>50</v>
       </c>
       <c r="F221" s="3"/>
-      <c r="G221" s="195" t="s">
+      <c r="G221" s="204" t="s">
         <v>154</v>
       </c>
       <c r="H221" s="3"/>
@@ -11517,47 +11483,47 @@
       <c r="J221" s="68"/>
     </row>
     <row r="222" spans="1:10" ht="12.75">
-      <c r="A222" s="195"/>
+      <c r="A222" s="204"/>
       <c r="B222" s="68"/>
-      <c r="C222" s="204"/>
+      <c r="C222" s="217"/>
       <c r="D222" s="3"/>
-      <c r="E222" s="195" t="s">
+      <c r="E222" s="204" t="s">
         <v>252</v>
       </c>
       <c r="F222" s="3"/>
-      <c r="G222" s="195"/>
+      <c r="G222" s="204"/>
       <c r="H222" s="3"/>
       <c r="I222" s="74"/>
       <c r="J222" s="68"/>
     </row>
     <row r="223" spans="1:10" ht="12.75">
-      <c r="A223" s="195"/>
+      <c r="A223" s="204"/>
       <c r="B223" s="68"/>
-      <c r="C223" s="204"/>
-      <c r="E223" s="195"/>
-      <c r="G223" s="195"/>
+      <c r="C223" s="217"/>
+      <c r="E223" s="204"/>
+      <c r="G223" s="204"/>
       <c r="H223" s="3"/>
       <c r="I223" s="74"/>
       <c r="J223" s="68"/>
     </row>
     <row r="224" spans="1:10" ht="12.75">
-      <c r="A224" s="195"/>
+      <c r="A224" s="204"/>
       <c r="B224" s="70"/>
-      <c r="C224" s="204"/>
-      <c r="E224" s="195"/>
-      <c r="G224" s="195"/>
+      <c r="C224" s="217"/>
+      <c r="E224" s="204"/>
+      <c r="G224" s="204"/>
       <c r="H224" s="3"/>
       <c r="I224" s="74"/>
       <c r="J224" s="70"/>
     </row>
     <row r="225" spans="1:10" ht="132" customHeight="1" thickBot="1">
-      <c r="A225" s="201"/>
+      <c r="A225" s="205"/>
       <c r="B225" s="127"/>
-      <c r="C225" s="205"/>
+      <c r="C225" s="218"/>
       <c r="D225" s="129"/>
-      <c r="E225" s="201"/>
+      <c r="E225" s="205"/>
       <c r="F225" s="129"/>
-      <c r="G225" s="201"/>
+      <c r="G225" s="205"/>
       <c r="H225" s="109"/>
       <c r="I225" s="78"/>
       <c r="J225" s="127"/>
@@ -11918,7 +11884,7 @@
       <c r="C264" s="147" t="s">
         <v>289</v>
       </c>
-      <c r="D264" s="212" t="s">
+      <c r="D264" s="220" t="s">
         <v>332</v>
       </c>
       <c r="E264" s="147"/>
@@ -11932,14 +11898,14 @@
       <c r="I264" s="147"/>
     </row>
     <row r="265" spans="1:9" ht="12.75">
-      <c r="A265" s="206" t="s">
+      <c r="A265" s="219" t="s">
         <v>291</v>
       </c>
       <c r="B265" s="70"/>
-      <c r="C265" s="212" t="s">
+      <c r="C265" s="220" t="s">
         <v>312</v>
       </c>
-      <c r="D265" s="214"/>
+      <c r="D265" s="222"/>
       <c r="E265" s="147" t="s">
         <v>357</v>
       </c>
@@ -11957,10 +11923,10 @@
       </c>
     </row>
     <row r="266" spans="1:9" ht="12.75">
-      <c r="A266" s="206"/>
+      <c r="A266" s="219"/>
       <c r="B266" s="70"/>
-      <c r="C266" s="212"/>
-      <c r="D266" s="214"/>
+      <c r="C266" s="220"/>
+      <c r="D266" s="222"/>
       <c r="E266" s="147" t="s">
         <v>358</v>
       </c>
@@ -11978,10 +11944,10 @@
       </c>
     </row>
     <row r="267" spans="1:9" ht="12.75">
-      <c r="A267" s="206"/>
+      <c r="A267" s="219"/>
       <c r="B267" s="70"/>
-      <c r="C267" s="212"/>
-      <c r="D267" s="214"/>
+      <c r="C267" s="220"/>
+      <c r="D267" s="222"/>
       <c r="E267" s="147" t="s">
         <v>359</v>
       </c>
@@ -11999,10 +11965,10 @@
       </c>
     </row>
     <row r="268" spans="1:9" ht="12.75">
-      <c r="A268" s="206"/>
+      <c r="A268" s="219"/>
       <c r="B268" s="70"/>
-      <c r="C268" s="212"/>
-      <c r="D268" s="214"/>
+      <c r="C268" s="220"/>
+      <c r="D268" s="222"/>
       <c r="E268" s="147" t="s">
         <v>360</v>
       </c>
@@ -12020,9 +11986,9 @@
       </c>
     </row>
     <row r="269" spans="1:9">
-      <c r="A269" s="206"/>
+      <c r="A269" s="219"/>
       <c r="B269" s="70"/>
-      <c r="C269" s="212"/>
+      <c r="C269" s="220"/>
       <c r="D269" s="162"/>
       <c r="E269" s="151"/>
       <c r="F269" s="151"/>
@@ -12031,9 +11997,9 @@
       <c r="I269" s="151"/>
     </row>
     <row r="270" spans="1:9">
-      <c r="A270" s="206"/>
+      <c r="A270" s="219"/>
       <c r="B270" s="70"/>
-      <c r="C270" s="212"/>
+      <c r="C270" s="220"/>
       <c r="D270" s="162"/>
       <c r="E270" s="151"/>
       <c r="F270" s="151"/>
@@ -12213,7 +12179,7 @@
       </c>
       <c r="B279" s="70"/>
       <c r="C279" s="147"/>
-      <c r="D279" s="196" t="s">
+      <c r="D279" s="211" t="s">
         <v>342</v>
       </c>
       <c r="E279" s="147"/>
@@ -12230,7 +12196,7 @@
       </c>
       <c r="B280" s="70"/>
       <c r="C280" s="151"/>
-      <c r="D280" s="196"/>
+      <c r="D280" s="211"/>
       <c r="E280" s="147"/>
       <c r="F280" s="151"/>
       <c r="G280" s="151"/>
@@ -12343,7 +12309,7 @@
       </c>
     </row>
     <row r="286" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A286" s="195" t="s">
+      <c r="A286" s="204" t="s">
         <v>301</v>
       </c>
       <c r="B286" s="70"/>
@@ -12353,31 +12319,31 @@
       <c r="D286" s="161" t="s">
         <v>343</v>
       </c>
-      <c r="E286" s="197" t="s">
+      <c r="E286" s="212" t="s">
         <v>366</v>
       </c>
       <c r="F286" s="151"/>
-      <c r="G286" s="209" t="s">
+      <c r="G286" s="208" t="s">
         <v>400</v>
       </c>
       <c r="H286" s="119"/>
       <c r="I286" s="147"/>
     </row>
     <row r="287" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A287" s="195"/>
+      <c r="A287" s="204"/>
       <c r="B287" s="70"/>
       <c r="C287" s="157" t="s">
         <v>322</v>
       </c>
       <c r="D287" s="161"/>
-      <c r="E287" s="197"/>
+      <c r="E287" s="212"/>
       <c r="F287" s="151"/>
-      <c r="G287" s="210"/>
+      <c r="G287" s="209"/>
       <c r="H287" s="119"/>
       <c r="I287" s="151"/>
     </row>
     <row r="288" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A288" s="195"/>
+      <c r="A288" s="204"/>
       <c r="B288" s="70"/>
       <c r="C288" s="157" t="s">
         <v>323</v>
@@ -12385,27 +12351,27 @@
       <c r="D288" s="161" t="s">
         <v>348</v>
       </c>
-      <c r="E288" s="197"/>
+      <c r="E288" s="212"/>
       <c r="F288" s="151"/>
-      <c r="G288" s="210"/>
+      <c r="G288" s="209"/>
       <c r="H288" s="75"/>
       <c r="I288" s="151"/>
     </row>
     <row r="289" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A289" s="195"/>
+      <c r="A289" s="204"/>
       <c r="B289" s="70"/>
       <c r="C289" s="157" t="s">
         <v>324</v>
       </c>
       <c r="D289" s="147"/>
-      <c r="E289" s="197"/>
+      <c r="E289" s="212"/>
       <c r="F289" s="151"/>
-      <c r="G289" s="210"/>
+      <c r="G289" s="209"/>
       <c r="H289" s="75"/>
       <c r="I289" s="151"/>
     </row>
     <row r="290" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A290" s="195"/>
+      <c r="A290" s="204"/>
       <c r="B290" s="70"/>
       <c r="C290" s="157" t="s">
         <v>325</v>
@@ -12413,7 +12379,7 @@
       <c r="D290" s="147"/>
       <c r="E290" s="147"/>
       <c r="F290" s="151"/>
-      <c r="G290" s="210"/>
+      <c r="G290" s="209"/>
       <c r="H290" s="75"/>
       <c r="I290" s="151"/>
     </row>
@@ -12426,7 +12392,7 @@
       <c r="D291" s="147"/>
       <c r="E291" s="147"/>
       <c r="F291" s="151"/>
-      <c r="G291" s="210"/>
+      <c r="G291" s="209"/>
       <c r="H291" s="75"/>
       <c r="I291" s="151"/>
     </row>
@@ -12439,7 +12405,7 @@
       <c r="D292" s="168"/>
       <c r="E292" s="168"/>
       <c r="F292" s="173"/>
-      <c r="G292" s="211"/>
+      <c r="G292" s="210"/>
       <c r="H292" s="75"/>
       <c r="I292" s="173"/>
     </row>
@@ -12902,27 +12868,27 @@
       </c>
     </row>
     <row r="326" spans="1:10" ht="12.75">
-      <c r="A326" s="208"/>
+      <c r="A326" s="207"/>
       <c r="B326" s="3"/>
     </row>
     <row r="327" spans="1:10" ht="12.75">
-      <c r="A327" s="213"/>
+      <c r="A327" s="221"/>
       <c r="B327" s="3"/>
     </row>
     <row r="328" spans="1:10" ht="12.75">
-      <c r="A328" s="213"/>
+      <c r="A328" s="221"/>
       <c r="B328" s="3"/>
     </row>
     <row r="329" spans="1:10" ht="12.75">
-      <c r="A329" s="213"/>
+      <c r="A329" s="221"/>
       <c r="B329" s="3"/>
     </row>
     <row r="330" spans="1:10" ht="12.75">
-      <c r="A330" s="213"/>
+      <c r="A330" s="221"/>
       <c r="B330" s="3"/>
     </row>
     <row r="331" spans="1:10" ht="12.75">
-      <c r="A331" s="213"/>
+      <c r="A331" s="221"/>
       <c r="B331" s="3"/>
       <c r="G331" s="3"/>
     </row>
@@ -13034,7 +13000,7 @@
       <c r="I345" s="6"/>
     </row>
     <row r="349" spans="1:19" ht="24.75" thickBot="1">
-      <c r="A349" s="198" t="s">
+      <c r="A349" s="203" t="s">
         <v>437</v>
       </c>
       <c r="B349" s="194"/>
@@ -13061,9 +13027,9 @@
         <v>119</v>
       </c>
       <c r="I352" s="22"/>
-      <c r="O352" s="207"/>
+      <c r="O352" s="200"/>
       <c r="P352" s="194"/>
-      <c r="R352" s="207"/>
+      <c r="R352" s="200"/>
       <c r="S352" s="194"/>
     </row>
     <row r="353" spans="1:19" ht="12.75">
@@ -13164,9 +13130,9 @@
       <c r="G363" s="13"/>
       <c r="H363" s="30"/>
       <c r="I363" s="22"/>
-      <c r="O363" s="208"/>
+      <c r="O363" s="207"/>
       <c r="P363" s="194"/>
-      <c r="R363" s="208"/>
+      <c r="R363" s="207"/>
       <c r="S363" s="194"/>
     </row>
     <row r="364" spans="1:19" ht="12.75">
@@ -13991,30 +13957,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="B46:C51"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="G221:G225"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="O352:P352"/>
-    <mergeCell ref="R352:S352"/>
-    <mergeCell ref="O363:P363"/>
-    <mergeCell ref="R363:S363"/>
-    <mergeCell ref="G286:G292"/>
     <mergeCell ref="A286:A290"/>
     <mergeCell ref="D279:D280"/>
     <mergeCell ref="E286:E289"/>
@@ -14031,6 +13973,30 @@
     <mergeCell ref="C265:C270"/>
     <mergeCell ref="A326:A331"/>
     <mergeCell ref="D264:D268"/>
+    <mergeCell ref="O352:P352"/>
+    <mergeCell ref="R352:S352"/>
+    <mergeCell ref="O363:P363"/>
+    <mergeCell ref="R363:S363"/>
+    <mergeCell ref="G286:G292"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="G221:G225"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="B46:C51"/>
+    <mergeCell ref="E165:F165"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B44" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -14824,16 +14790,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:I92"/>
-    <mergeCell ref="E95:F95"/>
     <mergeCell ref="E97:F97"/>
     <mergeCell ref="E75:J75"/>
     <mergeCell ref="E77:G77"/>
@@ -14842,6 +14798,16 @@
     <mergeCell ref="E83:F83"/>
     <mergeCell ref="E88:H88"/>
     <mergeCell ref="E89:J89"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:I92"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="E65:F65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E81" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
